--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2289227.833133997</v>
+        <v>2286975.753422789</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258.2340539648379</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900295</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.647680961032275</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>257.4905091903021</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>41.35684107511847</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798582</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>32.24238685723915</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>61.47667877058522</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>52.33551640890287</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>97.18111948505684</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>285.2123952220965</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.08802744677304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217521</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977265</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.8913819999755</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.3555494301526</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250374</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250374</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2266.429418274563</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C4" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>680.9399091633771</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>533.026815580984</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>386.1368680830736</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>218.4340314577926</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>72.21684467565038</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>469.1096982204634</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757129</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2089.358425227296</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1720.395908286885</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1362.130209680134</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>976.3419570818899</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>565.3560522922824</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>150.2836021372788</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.09759726723</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2866.09759726723</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2866.09759726723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2475.958265291418</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.3382468580007</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>99.08018396474822</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>858.7893504943615</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>858.7893504943615</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>637.0227350638876</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>637.0227350638876</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>382.3382468580007</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>382.3382468580007</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>382.3382468580007</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.3382468580007</v>
+        <v>99.08018396474822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116519</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176108</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>958.1473305693573</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>572.359077971113</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3731731815055</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136268</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.33740552049</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450756</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180641</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180641</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780107</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501038</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>529.017994137768</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553749</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962294</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>354.6054449393516</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780107</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5027,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400685</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138384</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703082</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,13 +5890,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
         <v>402.7245934908939</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6923,46 +6923,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7078,19 +7078,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7318,16 +7318,16 @@
         <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075605</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.35543909865233</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182167</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194223</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503017</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675039</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="K2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.949767504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687961</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687963</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687973</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687966</v>
@@ -26522,46 +26522,46 @@
         <v>-914494.1029948258</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327665</v>
+        <v>414250.6427327662</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327662</v>
+        <v>414250.6427327668</v>
       </c>
       <c r="E6" t="n">
-        <v>163388.3181293627</v>
+        <v>163353.5802039265</v>
       </c>
       <c r="F6" t="n">
-        <v>488800.7799367176</v>
+        <v>488766.0420112821</v>
       </c>
       <c r="G6" t="n">
-        <v>488800.7799367171</v>
+        <v>488766.0420112821</v>
       </c>
       <c r="H6" t="n">
-        <v>488800.7799367173</v>
+        <v>488766.0420112814</v>
       </c>
       <c r="I6" t="n">
-        <v>488800.7799367172</v>
+        <v>488766.0420112819</v>
       </c>
       <c r="J6" t="n">
-        <v>271269.5775394402</v>
+        <v>271234.839614004</v>
       </c>
       <c r="K6" t="n">
-        <v>488800.7799367172</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="L6" t="n">
-        <v>488800.7799367174</v>
+        <v>488766.0420112818</v>
       </c>
       <c r="M6" t="n">
-        <v>403745.7520012059</v>
+        <v>403711.0140757698</v>
       </c>
       <c r="N6" t="n">
-        <v>488800.7799367176</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="O6" t="n">
-        <v>488800.7799367173</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="P6" t="n">
-        <v>488800.7799367173</v>
+        <v>488766.0420112815</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.4997876986426</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.7461296822323</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>90.70473944880581</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>28.7213290153108</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>253.250923312202</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080678</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>133.7834214017891</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>27.45547389946211</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>358.5862092445506</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>272.5499811934122</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>1.310603114494484</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.4966259053218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.733452526340823e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-4.813738204112632e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>260.1710714068244</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839416</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338208</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>122.3296324324654</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899051</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095827</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066219</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299896</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394658</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
